--- a/CalcOutput/UBRFit.xlsx
+++ b/CalcOutput/UBRFit.xlsx
@@ -344,17 +344,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="n">
-        <v>0.000747794317630408</v>
+        <v>0.000776946802124949</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>0.000594059615984415</v>
+        <v>0.000663962057455959</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>0.20330217199036</v>
+        <v>0.193161438701228</v>
       </c>
     </row>
   </sheetData>
